--- a/timing_for_components.xlsx
+++ b/timing_for_components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorrison/Projects/hand_sensor_test/empaticadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorrison/Projects/hand_sensor_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36EA111-5F77-DB46-9950-FB6E5C6A0F3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{973B52C8-6F73-8C4E-BCE1-B440B985C2AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9580,7 +9580,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9648,7 +9648,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5">
         <v>48</v>
@@ -9669,7 +9669,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="7">
         <v>51</v>
@@ -9693,7 +9693,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9">
         <v>52</v>
@@ -9714,7 +9714,7 @@
         <v>28</v>
       </c>
       <c r="L3" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3" s="11">
         <v>56</v>
@@ -9738,7 +9738,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>56</v>
@@ -9759,7 +9759,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="11">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -9804,7 +9804,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="11">
         <v>5</v>
@@ -9828,7 +9828,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9">
         <v>5</v>
@@ -9849,7 +9849,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" s="11">
         <v>10</v>
@@ -9873,7 +9873,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9">
         <v>10</v>
@@ -9894,7 +9894,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="11">
         <v>11</v>
@@ -9918,7 +9918,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="9">
         <v>12</v>
@@ -9939,7 +9939,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" s="11">
         <v>14</v>
@@ -9963,7 +9963,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="9">
         <v>15</v>
@@ -9984,13 +9984,13 @@
         <v>28</v>
       </c>
       <c r="L9" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M9" s="11">
         <v>20</v>
       </c>
       <c r="N9" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3"/>
     </row>

--- a/timing_for_components.xlsx
+++ b/timing_for_components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorrison/Projects/hand_sensor_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973B52C8-6F73-8C4E-BCE1-B440B985C2AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5AE8B-D11E-2347-A3AB-2B1C9D642CCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9990,7 +9990,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P9" s="3"/>
     </row>
